--- a/fuentes/contenidos/grado09/guion06/Escaleta_ CS_09_06_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion06/Escaleta_ CS_09_06_CO.xlsx
@@ -956,16 +956,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -976,6 +973,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1298,8 +1298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D26" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView tabSelected="1" topLeftCell="E37" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1328,94 +1328,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="29"/>
-      <c r="O1" s="24" t="s">
+      <c r="N1" s="28"/>
+      <c r="O1" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="23" t="s">
+      <c r="P1" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="Q1" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="R1" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="24" t="s">
+      <c r="S1" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="24" t="s">
+      <c r="T1" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="24" t="s">
+      <c r="U1" s="25" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
       <c r="M2" s="4" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
     </row>
     <row r="3" spans="1:21" ht="108" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3046,7 +3046,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="90" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" ht="72" x14ac:dyDescent="0.25">
       <c r="A36" s="18"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -3464,6 +3464,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -3478,12 +3484,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I40:I41">
